--- a/src/test/resources/excel/profile.xlsx
+++ b/src/test/resources/excel/profile.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\qaProject1\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77954F6-370F-42C8-BB78-07BA962767AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78074E81-2372-4428-8AAA-83AB1CFD1358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C5D06B3-C59E-410D-AB1F-3A8D8087DA38}"/>
+    <workbookView xWindow="10548" yWindow="420" windowWidth="12492" windowHeight="11940" xr2:uid="{8C5D06B3-C59E-410D-AB1F-3A8D8087DA38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Personal Information" sheetId="1" r:id="rId2"/>
     <sheet name="Address" sheetId="2" r:id="rId3"/>
+    <sheet name="reg_invalid" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -220,6 +222,61 @@
   </si>
   <si>
     <t>hm004@gmail.com</t>
+  </si>
+  <si>
+    <t>!@1.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1@1.ta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a8.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a8@rt.tt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z!0@</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQQ@a.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123q@on.us</t>
+  </si>
+  <si>
+    <t>123q@on.us</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!2345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*****</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY YY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQQq@a.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -313,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +391,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -652,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E07C878-42FB-4120-BE6B-ABA351B53D87}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="17.399999999999999"/>
@@ -702,7 +765,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -713,7 +776,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1016,4 +1079,248 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49432A87-959B-44FD-8E72-98B074F4CCEB}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.8" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{3D57FE0E-0D16-4608-A33E-CE0E6BD1C63E}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{D543255F-FDFA-4FD9-B49E-0D7DCECF7398}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{6CC6DFF5-8642-4DBE-9C91-CB259325AABC}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{7328AAA2-C93E-4D0D-976B-B8BC9DC26D51}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{05FCF4D7-D257-4ABB-BD0D-D874E035D1A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D7A350-F5F4-4425-AAB3-A2B0F63597C0}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.8" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{4339B952-97FE-4E8A-B2CF-C89DAF944A1B}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{E262DF9C-5020-455C-BC70-2D8387D1DB98}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{14D2F389-BCE1-4CC7-9FC3-859D428F155D}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{EBADD83D-B3AA-417A-B422-6CD8B70AB1F0}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{CF79179D-FF82-47A2-B939-B50ED5D4F79F}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{574CA353-4E37-4028-B5EB-C98AF59434E3}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{55A6C6A7-8247-4171-B908-191148A7055C}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{99451052-5B73-4273-86C6-FDDBBABC8779}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{3A1579A5-16C8-463E-8CF7-708E251676E1}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{80AFB0F8-6B17-4550-95A5-C73B7983CEC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>